--- a/biology/Médecine/Paul_Segond/Paul_Segond.xlsx
+++ b/biology/Médecine/Paul_Segond/Paul_Segond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Segond, né le 8 mai 1851 à Paris, où il meurt le 27 octobre 1912, est un chirurgien français. Il est l’un des fondateurs de la chirurgie gynécologique et de l’enseignement de la gynécologie à Paris.
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Ferdinand Segond fait ses études de médecine à Paris. Premier au concours de l'externat de 1874, il est également reçu premier à l'internat des hôpitaux en 1875. En 1874, il a fait une communication dans les Annales de gynécologie sur le poids des nouveau-nés[1]. Il est nommé aide d'anatomie à la faculté de médecine en 1877, et prosecteur l’année suivante. En 1880, il est reçu docteur en médecine et couronné par la Société de chirurgie et l'Académie des sciences pour sa thèse sur les abcès chauds de la prostate et le phlegmon périprostatique. En 1883[2], ayant soutenu une thèse sur la cure radicale des hernies, il devient professeur agrégé de chirurgie. Reçu la même année, encore une fois premier, au concours de chirurgien des hôpitaux, il est nommé chef de clinique à l’hôpital de la Salpêtrière, avec le chirurgien Ulysse Trélat[3]. Promu en 1900 chirurgien en chef du même hôpital, il travaille parallèlement à la clinique Baudelocque. En 1905, il succède à Paul Tillaux à la chaire de médecine opératoire de la faculté et, en 1909, à Paul Reclus à celle de clinique chirurgicale, qu’il conserve jusqu’à sa mort en 1912.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Ferdinand Segond fait ses études de médecine à Paris. Premier au concours de l'externat de 1874, il est également reçu premier à l'internat des hôpitaux en 1875. En 1874, il a fait une communication dans les Annales de gynécologie sur le poids des nouveau-nés. Il est nommé aide d'anatomie à la faculté de médecine en 1877, et prosecteur l’année suivante. En 1880, il est reçu docteur en médecine et couronné par la Société de chirurgie et l'Académie des sciences pour sa thèse sur les abcès chauds de la prostate et le phlegmon périprostatique. En 1883, ayant soutenu une thèse sur la cure radicale des hernies, il devient professeur agrégé de chirurgie. Reçu la même année, encore une fois premier, au concours de chirurgien des hôpitaux, il est nommé chef de clinique à l’hôpital de la Salpêtrière, avec le chirurgien Ulysse Trélat. Promu en 1900 chirurgien en chef du même hôpital, il travaille parallèlement à la clinique Baudelocque. En 1905, il succède à Paul Tillaux à la chaire de médecine opératoire de la faculté et, en 1909, à Paul Reclus à celle de clinique chirurgicale, qu’il conserve jusqu’à sa mort en 1912.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de l'anatomiste Louis-Auguste Segond (1819-1908[4],[5]) et le gendre de Juliette Adam, activiste féministe et femme de lettres. L'un des fils de sa fille Claudie, mariée au chimiste Ernest Fourneau, est le peintre surréaliste Jean-Claude Fourneau.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de l'anatomiste Louis-Auguste Segond (1819-1908,) et le gendre de Juliette Adam, activiste féministe et femme de lettres. L'un des fils de sa fille Claudie, mariée au chimiste Ernest Fourneau, est le peintre surréaliste Jean-Claude Fourneau.
 </t>
         </is>
       </c>
@@ -575,11 +591,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil génito-urinaire et gynécologie
-Parmi les plus importantes des contributions de Segond, il faut compter celles qui relèvent de la chirurgie des organes génito-urinaires. Sa thèse de 1880 porte sur la prostate[6]. En 1884, il publie sur une pathologie de l’urètre[7] et, en 1887, sur l’ablation du rein[8]. En 1889, il décrit un « nouveau procédé de traitement chirurgical de l’exstrophie de la vessie[9],[10] ».
-D’autre part, et sous l’influence de Jules Péan, il se tourne vers les opérations gynécologiques et son principal apport dans ce domaine concerne l’hystérectomie par la voie vaginale[11], voie naturelle par laquelle Segond opère également des carcinomes et des myomes.
-Fracture de Segond
-Enfin, Segond est un des plus éminents spécialistes du genou au XIXe siècle en France. Reprenant les expériences d’Amédée Bonnet (1820-1858), il publie en 1879 une étude sur « les épanchements sanguins du genou par entorse »[12]. Observant un traumatisme qui porte aujourd’hui son nom, la « fracture de Segond », qui se produit par arrachement du bord antéro-latéral du plateau tibial et s’accompagne généralement d’une rupture du ligament croisé antérieur, il en décrit les autres signes cliniques et, à cette occasion, il signale l'existence d'une « bande nacrée », oubliée depuis lors, redécouverte en 2012 au CHU de Brest[13] et en 2013 à l'hôpital universitaire de Louvain (nl)[14], et renommée par ses nouveaux auteurs « ligament antéro-latéral »[15].
+          <t>Appareil génito-urinaire et gynécologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les plus importantes des contributions de Segond, il faut compter celles qui relèvent de la chirurgie des organes génito-urinaires. Sa thèse de 1880 porte sur la prostate. En 1884, il publie sur une pathologie de l’urètre et, en 1887, sur l’ablation du rein. En 1889, il décrit un « nouveau procédé de traitement chirurgical de l’exstrophie de la vessie, ».
+D’autre part, et sous l’influence de Jules Péan, il se tourne vers les opérations gynécologiques et son principal apport dans ce domaine concerne l’hystérectomie par la voie vaginale, voie naturelle par laquelle Segond opère également des carcinomes et des myomes.
 </t>
         </is>
       </c>
@@ -605,12 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Éponymie</t>
+          <t>Œuvre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segond ayant inventé ou perfectionné un très grand nombre de procédés opératoires, parmi lesquels l’« opération de Péan-Segond », il a tout naturellement créé aussi de nombreux instruments, auxquels son nom reste également attaché : aiguille, spatule, tracteur, érigne, pinces ou valve de Segond.
+          <t>Fracture de Segond</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfin, Segond est un des plus éminents spécialistes du genou au XIXe siècle en France. Reprenant les expériences d’Amédée Bonnet (1820-1858), il publie en 1879 une étude sur « les épanchements sanguins du genou par entorse ». Observant un traumatisme qui porte aujourd’hui son nom, la « fracture de Segond », qui se produit par arrachement du bord antéro-latéral du plateau tibial et s’accompagne généralement d’une rupture du ligament croisé antérieur, il en décrit les autres signes cliniques et, à cette occasion, il signale l'existence d'une « bande nacrée », oubliée depuis lors, redécouverte en 2012 au CHU de Brest et en 2013 à l'hôpital universitaire de Louvain (nl), et renommée par ses nouveaux auteurs « ligament antéro-latéral ».
 </t>
         </is>
       </c>
@@ -636,13 +661,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segond ayant inventé ou perfectionné un très grand nombre de procédés opératoires, parmi lesquels l’« opération de Péan-Segond », il a tout naturellement créé aussi de nombreux instruments, auxquels son nom reste également attaché : aiguille, spatule, tracteur, érigne, pinces ou valve de Segond.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Segond</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Segond</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Chef de service du pavillon Osiris à l’hôpital de la Salpêtrière (1883) ;
-Chirurgien en chef de l’hôpital de la Salpêtrière (1900)[16] ;
+Chirurgien en chef de l’hôpital de la Salpêtrière (1900) ;
 Secrétaire général de la Société de chirurgie de Paris (1900-1905) ;
 Professeur de médecine opératoire (1905) ;
 Président de la Société nationale de chirurgie (1906) ;
@@ -652,57 +712,164 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Paul_Segond</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Segond</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Segond</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Segond</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Appareil génito-urinaire
-1880 : Des abcès chauds de la prostate et de la région périprostatique, Paris, G. Masson, 1880 (lire en ligne).
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Appareil génito-urinaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1880 : Des abcès chauds de la prostate et de la région périprostatique, Paris, G. Masson, 1880 (lire en ligne).
 1881 : « Étude sur l'anatomie pathologique des rétrécissements de l'urèthre », Gazette hebdomadaire de médecine et de chirurgie, 2e série, vol. 18, no 39,‎ 30 septembre 1881, p. 625-627 (lire en ligne, consulté le 12 octobre 2012), avec Édouard Brissaud.
 1885 : « Des avantages de l’incision périnéale dans le traitement des suppurations prostatiques et péri-prostatiques », Bulletins et mémoires de la Société de chirurgie,‎ 1885.
 1886 : « Deux néphrectomies : L'une pour une hydronéphrose suppurée et l'autre pour un rein flottant douloureux : Guérison » (communication faite au congrès français de chirurgie, 2e session, octobre 1886).
 1889 : « Traitement chirurgical de l’exstrophie de la vessie : Note sur un nouveau procédé opératoire (communication faite au congrès français de chirurgie, 4e session, octobre 1889) », Annales des maladies des organes génito-urinaires,‎ avril 1890.
-1903 : Préface à Albert Katz, Le Traitement chirurgical de l'exstrophie de la vessie, Paris, G. Steinheil, 1903 (lire en ligne), p. 5-8.
-Gynécologie
-1885 : « Note sur un cas d'imperforation congénitale de l’hymen », dans Bulletins et mémoires de la Société de chirurgie.
+1903 : Préface à Albert Katz, Le Traitement chirurgical de l'exstrophie de la vessie, Paris, G. Steinheil, 1903 (lire en ligne), p. 5-8.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Segond</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Segond</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gynécologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1885 : « Note sur un cas d'imperforation congénitale de l’hymen », dans Bulletins et mémoires de la Société de chirurgie.
 1888 : Traitement des fibromes utérins par la castration ovarienne.
 1892 : « De l'hystérectomie vaginale dans le traitement des suppurations péri-utérines », dans Bulletins et mémoires de la Société de chirurgie.
 1893 : « Résultats éloignés de l'ablation des annexes de l'utérus dans les infections non néoplasiques de ces organes », dans Séances annuelles du Congrès français de chirurgie.
 1894 : « Nouveau procédé opératoire pour supprimer les fistules recto-vaginales chez les femmes dont le périnée est intact », dans Bulletins et mémoires de la Société de chirurgie.
 1894 : « Sur l'hystérectomie vaginale dans l'ablation de certaines tumeurs annexes » (communication faite au Congrès français de chirurgie : 8e session, Lyon, 1894), Paris, Félix Alcan, 1895.
-1898 : « Traitement des grossesses extra-utérines » [rapport au Congrès périodique de gynécologie, d'obstétrique et de pédiatrie, 2e session, Marseille, octobre 1998], dans Gazette hebdomadaire de médecine et de chirurgie, 3e série, vol. 3, pp. 997-1000 ; L. Maretheux, Paris (OCLC 492862168) ; réédition Nabu Press, février 2010  (ISBN 978-1-145-00897-7).
-Divers
-1879 : Recherches cliniques et expérimentales sur les épanchements sanguins du genou par entorse, Bureaux du Progrès médical, 1879 (lire en ligne).
+1898 : « Traitement des grossesses extra-utérines » [rapport au Congrès périodique de gynécologie, d'obstétrique et de pédiatrie, 2e session, Marseille, octobre 1998], dans Gazette hebdomadaire de médecine et de chirurgie, 3e série, vol. 3, pp. 997-1000 ; L. Maretheux, Paris (OCLC 492862168) ; réédition Nabu Press, février 2010  (ISBN 978-1-145-00897-7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_Segond</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Segond</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1879 : Recherches cliniques et expérimentales sur les épanchements sanguins du genou par entorse, Bureaux du Progrès médical, 1879 (lire en ligne).
 1883 : Cure radicale des hernies (thèse présentée au concours de l'agrégation, section de chirurgie et d'accouchements), Paris, Typographie G. Chamerot, 1883.
 1885 : « Gastrotomie pour rétrécissement infranchissable de l’œsophage », La Semaine médicale,‎ 22 avril 1885.
 1887 : « Kyste hépatique de la face convexe du foie traité et guéri par l’ouverture large de ses parois », Bulletins et mémoires de la Société de chirurgie,‎ 1887.
 1888 : Valeur de la cure radicale des hernies, 1888.
 1890 : Résection du nerf maxillaire supérieur et du ganglion sphéno-palatin par la voie temporale, 1890.
-1894 : « Note sur l'anesthésie par le bromure d'éthyle », Bulletins et mémoires de la Société de chirurgie,‎ 1894.
-Participations
-1885 : « Varicocèle », dans Sigismond Jaccoud (dir.), Nouveau dictionnaire de médecine et de chirurgie pratiques, vol. 38 [Vac-Vei], Baillière et fils, 1885.
+1894 : « Note sur l'anesthésie par le bromure d'éthyle », Bulletins et mémoires de la Société de chirurgie,‎ 1894.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paul_Segond</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Segond</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1885 : « Varicocèle », dans Sigismond Jaccoud (dir.), Nouveau dictionnaire de médecine et de chirurgie pratiques, vol. 38 [Vac-Vei], Baillière et fils, 1885.
 1888 : « Tumeurs de l'ovaire », dans John Hashhurst (dir.), Encyclopédie internationale de chirurgie, vol. 7 : Organes génito-urinaires de l'homme et de la femme, Paris, Baillière et fils, 1888, 908 p..
 1892 : « Chirurgie du foie », « Chirurgie des annexes de l'urètre », « Ovaires », « Trompes », « Ligaments larges », « Péritoine pelvien », dans Simon Duplay et Paul Reclus, Traité de chirurgie, Paris, G. Masson, 1892.</t>
         </is>
